--- a/branch/SXAU/resources/others/money.xlsx
+++ b/branch/SXAU/resources/others/money.xlsx
@@ -1,97 +1,562 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10490\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\HTML\github\branch\SXAU\resources\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CC463E-1619-4A1A-B405-EA45A2B83E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0ADC10-C5FF-4E45-A025-01AC0E3C0A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="0" windowWidth="16440" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="0" windowWidth="16440" windowHeight="12360" xr2:uid="{335928DB-CFAC-4ACE-B54E-2C90BF1ACF53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
   </si>
   <si>
     <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>结余</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入</t>
+  </si>
+  <si>
+    <t>收集班费</t>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="26" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线 Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="楷体"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="华文隶书"/>
+      <name val="楷体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="华文行楷"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="华文行楷"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="14">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -109,18 +574,246 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -136,7 +829,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -152,7 +845,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -164,7 +857,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -181,7 +874,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -211,12 +904,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -246,6 +956,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -397,246 +1124,278 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0769CBEA-9770-43DA-9C8F-AB950D4CE1BF}">
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10" style="2" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" style="2" customWidth="1"/>
+    <col min="5" max="7" width="8.77734375" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" s="8">
+        <v>45584</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="9">
+        <v>195</v>
+      </c>
+      <c r="F2" s="9">
+        <v>195</v>
+      </c>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{55E70CDF-4AD4-4634-9D9F-EC69D4E268ED}">
-      <formula1>"收入,支出"</formula1>
-    </dataValidation>
-  </dataValidations>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/branch/SXAU/resources/others/money.xlsx
+++ b/branch/SXAU/resources/others/money.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\HTML\github\branch\SXAU\resources\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0ADC10-C5FF-4E45-A025-01AC0E3C0A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A79BF62-0529-4D43-895C-1B13B7FDA242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="0" windowWidth="16440" windowHeight="12360" xr2:uid="{335928DB-CFAC-4ACE-B54E-2C90BF1ACF53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>序号</t>
   </si>
@@ -47,6 +47,33 @@
   </si>
   <si>
     <t>金额</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>支出</t>
+  </si>
+  <si>
+    <t>班委竞选会买水</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>报销对象</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹骄扬</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>王丹学姐</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印班委会竞选信息表</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1125,10 +1152,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0769CBEA-9770-43DA-9C8F-AB950D4CE1BF}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1136,12 +1163,13 @@
     <col min="1" max="1" width="9.44140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="10" style="2" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" style="2" customWidth="1"/>
-    <col min="5" max="7" width="8.77734375" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="13.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="37.44140625" style="2" customWidth="1"/>
+    <col min="6" max="8" width="11" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1151,20 +1179,23 @@
       <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1175,39 +1206,70 @@
         <v>6</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" s="9">
-        <v>195</v>
       </c>
       <c r="F2" s="9">
         <v>195</v>
       </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="9">
+        <v>195</v>
+      </c>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="8">
+        <v>45584</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="9">
+        <v>-35.799999999999997</v>
+      </c>
+      <c r="G3" s="9">
+        <f>G2+F3</f>
+        <v>159.19999999999999</v>
+      </c>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="8">
+        <v>45584</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="9">
+        <v>-6</v>
+      </c>
+      <c r="G4" s="9">
+        <f>G3+F4</f>
+        <v>153.19999999999999</v>
+      </c>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -1217,8 +1279,9 @@
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -1228,8 +1291,9 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -1239,8 +1303,9 @@
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -1250,8 +1315,9 @@
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -1261,8 +1327,9 @@
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -1272,8 +1339,9 @@
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -1283,8 +1351,9 @@
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -1294,8 +1363,9 @@
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -1305,8 +1375,9 @@
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -1316,8 +1387,9 @@
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -1327,8 +1399,9 @@
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -1338,8 +1411,9 @@
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
-    </row>
-    <row r="17" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -1349,8 +1423,9 @@
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
-    </row>
-    <row r="18" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -1360,8 +1435,9 @@
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -1371,8 +1447,9 @@
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
-    </row>
-    <row r="20" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -1382,8 +1459,9 @@
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
-    </row>
-    <row r="21" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -1393,9 +1471,15 @@
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{A688AFA5-494B-4267-AF2C-9358CEEC14DA}">
+      <formula1>"收入,支出"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/branch/SXAU/resources/others/money.xlsx
+++ b/branch/SXAU/resources/others/money.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\HTML\github\branch\SXAU\resources\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A79BF62-0529-4D43-895C-1B13B7FDA242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4C711B-C315-4817-BCC1-FB0FE3F2D17A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="0" windowWidth="16440" windowHeight="12360" xr2:uid="{335928DB-CFAC-4ACE-B54E-2C90BF1ACF53}"/>
   </bookViews>

--- a/branch/SXAU/resources/others/money.xlsx
+++ b/branch/SXAU/resources/others/money.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\HTML\github\branch\SXAU\resources\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4C711B-C315-4817-BCC1-FB0FE3F2D17A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E7A2E4-FA29-4A1B-A25F-79CEB4ACE5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="0" windowWidth="16440" windowHeight="12360" xr2:uid="{335928DB-CFAC-4ACE-B54E-2C90BF1ACF53}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{335928DB-CFAC-4ACE-B54E-2C90BF1ACF53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>序号</t>
   </si>
@@ -74,6 +74,18 @@
   </si>
   <si>
     <t>打印班委会竞选信息表</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>金卿</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印歌词</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一次更新时间</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -81,10 +93,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -288,6 +301,14 @@
       <name val="华文行楷"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -765,7 +786,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -796,6 +817,9 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1152,10 +1176,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0769CBEA-9770-43DA-9C8F-AB950D4CE1BF}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1166,10 +1190,11 @@
     <col min="4" max="4" width="13.44140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="37.44140625" style="2" customWidth="1"/>
     <col min="6" max="8" width="11" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="31.6640625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1194,8 +1219,11 @@
       <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1218,8 +1246,12 @@
         <v>195</v>
       </c>
       <c r="H2" s="9"/>
-    </row>
-    <row r="3" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="11">
+        <f ca="1">NOW()</f>
+        <v>45589.78522002315</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1243,8 +1275,9 @@
         <v>159.19999999999999</v>
       </c>
       <c r="H3" s="9"/>
-    </row>
-    <row r="4" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -1268,20 +1301,36 @@
         <v>153.19999999999999</v>
       </c>
       <c r="H4" s="9"/>
-    </row>
-    <row r="5" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="B5" s="8">
+        <f ca="1">NOW()</f>
+        <v>45589.78522002315</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="9">
+        <v>-11.7</v>
+      </c>
+      <c r="G5" s="9">
+        <f>G4+F5</f>
+        <v>141.5</v>
+      </c>
       <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -1293,7 +1342,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -1305,7 +1354,7 @@
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -1317,7 +1366,7 @@
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -1329,7 +1378,7 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -1341,7 +1390,7 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -1353,7 +1402,7 @@
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -1365,7 +1414,7 @@
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -1377,7 +1426,7 @@
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -1389,7 +1438,7 @@
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -1401,7 +1450,7 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -1474,6 +1523,9 @@
       <c r="H21" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I2:I5"/>
+  </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{A688AFA5-494B-4267-AF2C-9358CEEC14DA}">

--- a/branch/SXAU/resources/others/money.xlsx
+++ b/branch/SXAU/resources/others/money.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\HTML\github\branch\SXAU\resources\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E7A2E4-FA29-4A1B-A25F-79CEB4ACE5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A08BAB-7D8E-4DA4-948A-0045A06545D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{335928DB-CFAC-4ACE-B54E-2C90BF1ACF53}"/>
+    <workbookView xWindow="1920" yWindow="0" windowWidth="16440" windowHeight="12360" xr2:uid="{335928DB-CFAC-4ACE-B54E-2C90BF1ACF53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>序号</t>
   </si>
@@ -86,6 +86,14 @@
   </si>
   <si>
     <t>最后一次更新时间</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>连君哲</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印班级学生档案清单</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -95,7 +103,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -818,7 +826,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="26" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1179,7 +1187,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1248,7 +1256,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="11">
         <f ca="1">NOW()</f>
-        <v>45589.78522002315</v>
+        <v>45595.980280671298</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1308,8 +1316,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="8">
-        <f ca="1">NOW()</f>
-        <v>45589.78522002315</v>
+        <v>45589</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>9</v>
@@ -1334,12 +1341,25 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
+      <c r="B6" s="8">
+        <v>45595</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="9">
+        <v>-0.9</v>
+      </c>
+      <c r="G6" s="9">
+        <f>G5+F6</f>
+        <v>140.6</v>
+      </c>
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">

--- a/branch/SXAU/resources/others/money.xlsx
+++ b/branch/SXAU/resources/others/money.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\HTML\github\branch\SXAU\resources\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A08BAB-7D8E-4DA4-948A-0045A06545D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234B2562-358E-43A4-A9AF-106E291A1B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="0" windowWidth="16440" windowHeight="12360" xr2:uid="{335928DB-CFAC-4ACE-B54E-2C90BF1ACF53}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>序号</t>
   </si>
@@ -86,14 +86,6 @@
   </si>
   <si>
     <t>最后一次更新时间</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>连君哲</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>打印班级学生档案清单</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1187,7 +1179,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B6" sqref="B6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1256,7 +1248,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="11">
         <f ca="1">NOW()</f>
-        <v>45595.980280671298</v>
+        <v>45596.812083680554</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1341,25 +1333,12 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="8">
-        <v>45595</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="9">
-        <v>-0.9</v>
-      </c>
-      <c r="G6" s="9">
-        <f>G5+F6</f>
-        <v>140.6</v>
-      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">

--- a/branch/SXAU/resources/others/money.xlsx
+++ b/branch/SXAU/resources/others/money.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\HTML\github\branch\SXAU\resources\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234B2562-358E-43A4-A9AF-106E291A1B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7F9ECE-A1DC-44E4-B3CD-F70FFA57E0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="0" windowWidth="16440" windowHeight="12360" xr2:uid="{335928DB-CFAC-4ACE-B54E-2C90BF1ACF53}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>序号</t>
   </si>
@@ -86,6 +86,10 @@
   </si>
   <si>
     <t>最后一次更新时间</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成小国旗购买</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1179,7 +1183,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:G6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1248,7 +1252,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="11">
         <f ca="1">NOW()</f>
-        <v>45596.812083680554</v>
+        <v>45599.963887731479</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1333,12 +1337,25 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
+      <c r="B6" s="8">
+        <v>45599</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="9">
+        <v>-25</v>
+      </c>
+      <c r="G6" s="9">
+        <f>G5+F6</f>
+        <v>116.5</v>
+      </c>
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1346,7 +1363,9 @@
         <v>6</v>
       </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
+      <c r="C7" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>

--- a/branch/SXAU/resources/others/money.xlsx
+++ b/branch/SXAU/resources/others/money.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\HTML\github\branch\SXAU\resources\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7F9ECE-A1DC-44E4-B3CD-F70FFA57E0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2DFB0CD-40E0-4F05-AABA-EDD9060DB112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="0" windowWidth="16440" windowHeight="12360" xr2:uid="{335928DB-CFAC-4ACE-B54E-2C90BF1ACF53}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>序号</t>
   </si>
@@ -90,6 +90,14 @@
   </si>
   <si>
     <t>合成小国旗购买</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>丰乐鑫</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>水火箭相关材料购买</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1183,7 +1191,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1252,7 +1260,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="11">
         <f ca="1">NOW()</f>
-        <v>45599.963887731479</v>
+        <v>45600.914147916665</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1362,14 +1370,25 @@
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="8">
+        <v>45600</v>
+      </c>
       <c r="C7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="9">
+        <v>-130.81</v>
+      </c>
+      <c r="G7" s="9">
+        <f>G6+F7</f>
+        <v>-14.310000000000002</v>
+      </c>
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">

--- a/branch/SXAU/resources/others/money.xlsx
+++ b/branch/SXAU/resources/others/money.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\HTML\github\branch\SXAU\resources\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2DFB0CD-40E0-4F05-AABA-EDD9060DB112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0AA7FC-3B1E-425F-8CE8-D5938447EF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="0" windowWidth="16440" windowHeight="12360" xr2:uid="{335928DB-CFAC-4ACE-B54E-2C90BF1ACF53}"/>
   </bookViews>
@@ -89,15 +89,15 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>合成小国旗购买</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>丰乐鑫</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>水火箭相关材料购买</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>合唱小国旗购买</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1191,7 +1191,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1260,7 +1260,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="11">
         <f ca="1">NOW()</f>
-        <v>45600.914147916665</v>
+        <v>45600.921477314812</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1355,7 +1355,7 @@
         <v>16</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F6" s="9">
         <v>-25</v>
@@ -1377,10 +1377,10 @@
         <v>9</v>
       </c>
       <c r="D7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>21</v>
       </c>
       <c r="F7" s="9">
         <v>-130.81</v>

--- a/branch/SXAU/resources/others/money.xlsx
+++ b/branch/SXAU/resources/others/money.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\HTML\github\branch\SXAU\resources\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0AA7FC-3B1E-425F-8CE8-D5938447EF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7A07D5-94BB-487B-8CE5-BC5AC91ED52D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="0" windowWidth="16440" windowHeight="12360" xr2:uid="{335928DB-CFAC-4ACE-B54E-2C90BF1ACF53}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>序号</t>
   </si>
@@ -98,6 +98,14 @@
   </si>
   <si>
     <t>合唱小国旗购买</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>李美旋</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生档案清单打印</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -105,9 +113,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -798,7 +807,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -832,6 +841,18 @@
     </xf>
     <xf numFmtId="177" fontId="26" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="22" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="23" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1191,7 +1212,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1201,7 +1222,8 @@
     <col min="3" max="3" width="10" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.44140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="37.44140625" style="2" customWidth="1"/>
-    <col min="6" max="8" width="11" style="2" customWidth="1"/>
+    <col min="6" max="7" width="13.77734375" style="15" customWidth="1"/>
+    <col min="8" max="8" width="11" style="2" customWidth="1"/>
     <col min="9" max="9" width="31.6640625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
@@ -1222,10 +1244,10 @@
       <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="13" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="6" t="s">
@@ -1251,16 +1273,16 @@
       <c r="E2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="14">
         <v>195</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="14">
         <v>195</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="11">
         <f ca="1">NOW()</f>
-        <v>45600.921477314812</v>
+        <v>45601.54510358796</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1279,10 +1301,10 @@
       <c r="E3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="14">
         <v>-35.799999999999997</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="14">
         <f>G2+F3</f>
         <v>159.19999999999999</v>
       </c>
@@ -1305,10 +1327,10 @@
       <c r="E4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="14">
         <v>-6</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="14">
         <f>G3+F4</f>
         <v>153.19999999999999</v>
       </c>
@@ -1331,10 +1353,10 @@
       <c r="E5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="14">
         <v>-11.7</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="14">
         <f>G4+F5</f>
         <v>141.5</v>
       </c>
@@ -1357,10 +1379,10 @@
       <c r="E6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="14">
         <v>-25</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="14">
         <f>G5+F6</f>
         <v>116.5</v>
       </c>
@@ -1382,10 +1404,10 @@
       <c r="E7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="14">
         <v>-130.81</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="14">
         <f>G6+F7</f>
         <v>-14.310000000000002</v>
       </c>
@@ -1395,24 +1417,50 @@
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="B8" s="8">
+        <v>45601</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="14">
+        <v>195</v>
+      </c>
+      <c r="G8" s="14">
+        <f t="shared" ref="G8:G10" si="0">G7+F8</f>
+        <v>180.69</v>
+      </c>
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="B9" s="8">
+        <v>45601</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="14">
+        <v>-0.8</v>
+      </c>
+      <c r="G9" s="14">
+        <f t="shared" si="0"/>
+        <v>179.89</v>
+      </c>
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1423,8 +1471,8 @@
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1435,8 +1483,8 @@
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1447,8 +1495,8 @@
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1459,8 +1507,8 @@
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1471,8 +1519,8 @@
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1483,8 +1531,8 @@
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1495,8 +1543,8 @@
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1507,8 +1555,8 @@
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
       <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1519,8 +1567,8 @@
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
       <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1531,8 +1579,8 @@
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
       <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1543,8 +1591,8 @@
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
       <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1555,8 +1603,8 @@
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
       <c r="H21" s="9"/>
     </row>
   </sheetData>

--- a/branch/SXAU/resources/others/money.xlsx
+++ b/branch/SXAU/resources/others/money.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\HTML\github\branch\SXAU\resources\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7A07D5-94BB-487B-8CE5-BC5AC91ED52D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB6411F-9392-495A-97C7-1FD258881C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="0" windowWidth="16440" windowHeight="12360" xr2:uid="{335928DB-CFAC-4ACE-B54E-2C90BF1ACF53}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>序号</t>
   </si>
@@ -106,6 +106,10 @@
   </si>
   <si>
     <t>学生档案清单打印</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到表打印</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -116,7 +120,7 @@
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -839,20 +843,20 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="22" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="23" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="26" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="22" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="23" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1212,7 +1216,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1222,7 +1226,7 @@
     <col min="3" max="3" width="10" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.44140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="37.44140625" style="2" customWidth="1"/>
-    <col min="6" max="7" width="13.77734375" style="15" customWidth="1"/>
+    <col min="6" max="7" width="13.77734375" style="14" customWidth="1"/>
     <col min="8" max="8" width="11" style="2" customWidth="1"/>
     <col min="9" max="9" width="31.6640625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="8.88671875" style="1"/>
@@ -1244,10 +1248,10 @@
       <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="6" t="s">
@@ -1273,16 +1277,16 @@
       <c r="E2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="13">
         <v>195</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="13">
         <v>195</v>
       </c>
       <c r="H2" s="9"/>
-      <c r="I2" s="11">
+      <c r="I2" s="15">
         <f ca="1">NOW()</f>
-        <v>45601.54510358796</v>
+        <v>45602.904299421294</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1301,15 +1305,15 @@
       <c r="E3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="13">
         <v>-35.799999999999997</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="13">
         <f>G2+F3</f>
         <v>159.19999999999999</v>
       </c>
       <c r="H3" s="9"/>
-      <c r="I3" s="11"/>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
@@ -1327,15 +1331,15 @@
       <c r="E4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="13">
         <v>-6</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="13">
         <f>G3+F4</f>
         <v>153.19999999999999</v>
       </c>
       <c r="H4" s="9"/>
-      <c r="I4" s="11"/>
+      <c r="I4" s="15"/>
     </row>
     <row r="5" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
@@ -1353,15 +1357,15 @@
       <c r="E5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="13">
         <v>-11.7</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="13">
         <f>G4+F5</f>
         <v>141.5</v>
       </c>
       <c r="H5" s="9"/>
-      <c r="I5" s="11"/>
+      <c r="I5" s="15"/>
     </row>
     <row r="6" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
@@ -1379,10 +1383,10 @@
       <c r="E6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="13">
         <v>-25</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="13">
         <f>G5+F6</f>
         <v>116.5</v>
       </c>
@@ -1404,10 +1408,10 @@
       <c r="E7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="13">
         <v>-130.81</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="13">
         <f>G6+F7</f>
         <v>-14.310000000000002</v>
       </c>
@@ -1429,10 +1433,10 @@
       <c r="E8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="13">
         <v>195</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="13">
         <f t="shared" ref="G8:G10" si="0">G7+F8</f>
         <v>180.69</v>
       </c>
@@ -1454,10 +1458,10 @@
       <c r="E9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="13">
         <v>-0.8</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="13">
         <f t="shared" si="0"/>
         <v>179.89</v>
       </c>
@@ -1467,12 +1471,25 @@
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
+      <c r="B10" s="8">
+        <v>45602</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="13">
+        <v>-0.6</v>
+      </c>
+      <c r="G10" s="13">
+        <f t="shared" si="0"/>
+        <v>179.29</v>
+      </c>
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1483,8 +1500,8 @@
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1495,8 +1512,8 @@
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1507,8 +1524,8 @@
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1519,8 +1536,8 @@
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1531,8 +1548,8 @@
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1543,8 +1560,8 @@
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1555,8 +1572,8 @@
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
       <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1567,8 +1584,8 @@
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
       <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1579,8 +1596,8 @@
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
       <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1591,8 +1608,8 @@
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
       <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1603,8 +1620,8 @@
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
       <c r="H21" s="9"/>
     </row>
   </sheetData>

--- a/branch/SXAU/resources/others/money.xlsx
+++ b/branch/SXAU/resources/others/money.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\HTML\github\branch\SXAU\resources\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB6411F-9392-495A-97C7-1FD258881C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC9A185-9F74-4AFA-A7FF-F82E425AAFAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="0" windowWidth="16440" windowHeight="12360" xr2:uid="{335928DB-CFAC-4ACE-B54E-2C90BF1ACF53}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{335928DB-CFAC-4ACE-B54E-2C90BF1ACF53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>序号</t>
   </si>
@@ -1216,7 +1216,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1286,7 +1286,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="15">
         <f ca="1">NOW()</f>
-        <v>45602.904299421294</v>
+        <v>45606.754506944446</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1437,7 +1437,7 @@
         <v>195</v>
       </c>
       <c r="G8" s="13">
-        <f t="shared" ref="G8:G10" si="0">G7+F8</f>
+        <f t="shared" ref="G8:G11" si="0">G7+F8</f>
         <v>180.69</v>
       </c>
       <c r="H8" s="9"/>
@@ -1496,12 +1496,25 @@
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="B11" s="8">
+        <v>45606</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="13">
+        <v>-0.2</v>
+      </c>
+      <c r="G11" s="13">
+        <f t="shared" si="0"/>
+        <v>179.09</v>
+      </c>
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">

--- a/branch/SXAU/resources/others/money.xlsx
+++ b/branch/SXAU/resources/others/money.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\HTML\github\branch\SXAU\resources\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC9A185-9F74-4AFA-A7FF-F82E425AAFAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447EAE70-A250-4F97-8817-9F43C385649C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{335928DB-CFAC-4ACE-B54E-2C90BF1ACF53}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>序号</t>
   </si>
@@ -110,6 +110,14 @@
   </si>
   <si>
     <t>签到表打印</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>贾书颖</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>团费信息表打印</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1216,7 +1224,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1286,7 +1294,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="15">
         <f ca="1">NOW()</f>
-        <v>45606.754506944446</v>
+        <v>45608.939656134258</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1437,7 +1445,7 @@
         <v>195</v>
       </c>
       <c r="G8" s="13">
-        <f t="shared" ref="G8:G11" si="0">G7+F8</f>
+        <f t="shared" ref="G8:G12" si="0">G7+F8</f>
         <v>180.69</v>
       </c>
       <c r="H8" s="9"/>
@@ -1521,12 +1529,25 @@
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="B12" s="8">
+        <v>45608</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="13">
+        <v>-1.6</v>
+      </c>
+      <c r="G12" s="13">
+        <f t="shared" si="0"/>
+        <v>177.49</v>
+      </c>
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">

--- a/branch/SXAU/resources/others/money.xlsx
+++ b/branch/SXAU/resources/others/money.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\HTML\github\branch\SXAU\resources\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447EAE70-A250-4F97-8817-9F43C385649C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD344C7-2685-4E15-AD73-F5575385021B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{335928DB-CFAC-4ACE-B54E-2C90BF1ACF53}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,22 @@
   </si>
   <si>
     <t>团费信息表打印</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>华朝建</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨喆雅</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>新生表打印</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>学籍信息表打印</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1224,7 +1240,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="G12" sqref="G12:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1294,7 +1310,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="15">
         <f ca="1">NOW()</f>
-        <v>45608.939656134258</v>
+        <v>45618.337399652781</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1445,7 +1461,7 @@
         <v>195</v>
       </c>
       <c r="G8" s="13">
-        <f t="shared" ref="G8:G12" si="0">G7+F8</f>
+        <f t="shared" ref="G8:G14" si="0">G7+F8</f>
         <v>180.69</v>
       </c>
       <c r="H8" s="9"/>
@@ -1554,24 +1570,50 @@
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="B13" s="8">
+        <v>45616</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="13">
+        <v>-3</v>
+      </c>
+      <c r="G13" s="13">
+        <f t="shared" si="0"/>
+        <v>174.49</v>
+      </c>
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="B14" s="8">
+        <v>45618</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="13">
+        <v>-4</v>
+      </c>
+      <c r="G14" s="13">
+        <f t="shared" si="0"/>
+        <v>170.49</v>
+      </c>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">

--- a/branch/SXAU/resources/others/money.xlsx
+++ b/branch/SXAU/resources/others/money.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\HTML\github\branch\SXAU\resources\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD344C7-2685-4E15-AD73-F5575385021B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F30F7DD-BC0D-41F5-BFE1-4CEB14763531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{335928DB-CFAC-4ACE-B54E-2C90BF1ACF53}"/>
+    <workbookView xWindow="1920" yWindow="0" windowWidth="16440" windowHeight="12360" xr2:uid="{335928DB-CFAC-4ACE-B54E-2C90BF1ACF53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>序号</t>
   </si>
@@ -134,6 +134,14 @@
   </si>
   <si>
     <t>学籍信息表打印</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>李美旋</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月考评打印</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1240,7 +1248,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12:G14"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1310,7 +1318,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="15">
         <f ca="1">NOW()</f>
-        <v>45618.337399652781</v>
+        <v>45619.66927604167</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1461,7 +1469,7 @@
         <v>195</v>
       </c>
       <c r="G8" s="13">
-        <f t="shared" ref="G8:G14" si="0">G7+F8</f>
+        <f t="shared" ref="G8:G15" si="0">G7+F8</f>
         <v>180.69</v>
       </c>
       <c r="H8" s="9"/>
@@ -1620,12 +1628,25 @@
       <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="B15" s="8">
+        <v>45619</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="13">
+        <v>-0.6</v>
+      </c>
+      <c r="G15" s="13">
+        <f t="shared" si="0"/>
+        <v>169.89000000000001</v>
+      </c>
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">

--- a/branch/SXAU/resources/others/money.xlsx
+++ b/branch/SXAU/resources/others/money.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\HTML\github\branch\SXAU\resources\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F30F7DD-BC0D-41F5-BFE1-4CEB14763531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68FB5CE-1415-465D-9EB2-3574FE4F0561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="0" windowWidth="16440" windowHeight="12360" xr2:uid="{335928DB-CFAC-4ACE-B54E-2C90BF1ACF53}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
   <si>
     <t>序号</t>
   </si>
@@ -142,6 +142,14 @@
   </si>
   <si>
     <t>11月考评打印</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>华朝建</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到表打印</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1248,7 +1256,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1318,7 +1326,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="15">
         <f ca="1">NOW()</f>
-        <v>45619.66927604167</v>
+        <v>45621.849873032406</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1469,7 +1477,7 @@
         <v>195</v>
       </c>
       <c r="G8" s="13">
-        <f t="shared" ref="G8:G15" si="0">G7+F8</f>
+        <f t="shared" ref="G8:G16" si="0">G7+F8</f>
         <v>180.69</v>
       </c>
       <c r="H8" s="9"/>
@@ -1653,12 +1661,25 @@
       <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="B16" s="8">
+        <v>45621</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="13">
+        <v>-0.4</v>
+      </c>
+      <c r="G16" s="13">
+        <f t="shared" si="0"/>
+        <v>169.49</v>
+      </c>
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">

--- a/branch/SXAU/resources/others/money.xlsx
+++ b/branch/SXAU/resources/others/money.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\HTML\github\branch\SXAU\resources\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68FB5CE-1415-465D-9EB2-3574FE4F0561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626B8510-BC65-4284-8600-11EF1F9889DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="0" windowWidth="16440" windowHeight="12360" xr2:uid="{335928DB-CFAC-4ACE-B54E-2C90BF1ACF53}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
   <si>
     <t>序号</t>
   </si>
@@ -150,6 +150,10 @@
   </si>
   <si>
     <t>签到表打印</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>班费（31人）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1256,7 +1260,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1326,7 +1330,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="15">
         <f ca="1">NOW()</f>
-        <v>45621.849873032406</v>
+        <v>45626.691360648147</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1477,7 +1481,7 @@
         <v>195</v>
       </c>
       <c r="G8" s="13">
-        <f t="shared" ref="G8:G16" si="0">G7+F8</f>
+        <f t="shared" ref="G8:G17" si="0">G7+F8</f>
         <v>180.69</v>
       </c>
       <c r="H8" s="9"/>
@@ -1686,12 +1690,23 @@
       <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
+      <c r="B17" s="8">
+        <v>45623</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="E17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="13">
+        <v>3.9</v>
+      </c>
+      <c r="G17" s="13">
+        <f t="shared" si="0"/>
+        <v>173.39000000000001</v>
+      </c>
       <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">

--- a/branch/SXAU/resources/others/money.xlsx
+++ b/branch/SXAU/resources/others/money.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\HTML\github\branch\SXAU\resources\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626B8510-BC65-4284-8600-11EF1F9889DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA99FB41-C3A0-49FB-B591-3ED095186931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="0" windowWidth="16440" windowHeight="12360" xr2:uid="{335928DB-CFAC-4ACE-B54E-2C90BF1ACF53}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{335928DB-CFAC-4ACE-B54E-2C90BF1ACF53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
   <si>
     <t>序号</t>
   </si>
@@ -154,6 +154,18 @@
   </si>
   <si>
     <t>班费（31人）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>李聪慧</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动签到表打印</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>刻盘</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1260,7 +1272,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1330,7 +1342,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="15">
         <f ca="1">NOW()</f>
-        <v>45626.691360648147</v>
+        <v>45644.627468055558</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1481,7 +1493,7 @@
         <v>195</v>
       </c>
       <c r="G8" s="13">
-        <f t="shared" ref="G8:G17" si="0">G7+F8</f>
+        <f t="shared" ref="G8:G19" si="0">G7+F8</f>
         <v>180.69</v>
       </c>
       <c r="H8" s="9"/>
@@ -1713,24 +1725,50 @@
       <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="B18" s="8">
+        <v>45626</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="13">
+        <v>-0.2</v>
+      </c>
+      <c r="G18" s="13">
+        <f t="shared" si="0"/>
+        <v>173.19000000000003</v>
+      </c>
       <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="B19" s="8">
+        <v>45639</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="13">
+        <v>-30</v>
+      </c>
+      <c r="G19" s="13">
+        <f t="shared" si="0"/>
+        <v>143.19000000000003</v>
+      </c>
       <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">

--- a/branch/SXAU/resources/others/money.xlsx
+++ b/branch/SXAU/resources/others/money.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\HTML\github\branch\SXAU\resources\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA99FB41-C3A0-49FB-B591-3ED095186931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF21B30-A295-4D09-8779-0D959A4699E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{335928DB-CFAC-4ACE-B54E-2C90BF1ACF53}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
   <si>
     <t>序号</t>
   </si>
@@ -166,6 +166,10 @@
   </si>
   <si>
     <t>刻盘</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>连君哲</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1272,7 +1276,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1342,7 +1346,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="15">
         <f ca="1">NOW()</f>
-        <v>45644.627468055558</v>
+        <v>45672.655910069443</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1493,7 +1497,7 @@
         <v>195</v>
       </c>
       <c r="G8" s="13">
-        <f t="shared" ref="G8:G19" si="0">G7+F8</f>
+        <f t="shared" ref="G8:G21" si="0">G7+F8</f>
         <v>180.69</v>
       </c>
       <c r="H8" s="9"/>
@@ -1775,24 +1779,50 @@
       <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="B20" s="8">
+        <v>45648</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="13">
+        <v>-0.6</v>
+      </c>
+      <c r="G20" s="13">
+        <f t="shared" si="0"/>
+        <v>142.59000000000003</v>
+      </c>
       <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="B21" s="8">
+        <v>45649</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="13">
+        <v>-0.2</v>
+      </c>
+      <c r="G21" s="13">
+        <f t="shared" si="0"/>
+        <v>142.39000000000004</v>
+      </c>
       <c r="H21" s="9"/>
     </row>
   </sheetData>

--- a/branch/SXAU/resources/others/money.xlsx
+++ b/branch/SXAU/resources/others/money.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\HTML\github\branch\SXAU\resources\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF21B30-A295-4D09-8779-0D959A4699E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEE556F-ACF9-4E4A-A540-89AC64180CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{335928DB-CFAC-4ACE-B54E-2C90BF1ACF53}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{335928DB-CFAC-4ACE-B54E-2C90BF1ACF53}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="2024-2025-1" sheetId="1" r:id="rId1"/>
+    <sheet name="2024-2025-2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
   <si>
     <t>序号</t>
   </si>
@@ -171,6 +172,13 @@
   <si>
     <t>连君哲</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>学期转结</t>
+  </si>
+  <si>
+    <t>转结</t>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -182,7 +190,7 @@
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -390,6 +398,13 @@
     <font>
       <sz val="18"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1275,8 +1290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0769CBEA-9770-43DA-9C8F-AB950D4CE1BF}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1346,7 +1361,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="15">
         <f ca="1">NOW()</f>
-        <v>45672.655910069443</v>
+        <v>45708.95974583333</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1837,4 +1852,333 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9645BABF-CFD7-49F8-87F2-18F9C077E7AC}">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="37.44140625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="13.77734375" style="14" customWidth="1"/>
+    <col min="8" max="8" width="11" style="2" customWidth="1"/>
+    <col min="9" max="9" width="31.6640625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
+        <v>45708</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="13">
+        <v>142.39000000000004</v>
+      </c>
+      <c r="G2" s="13">
+        <v>142.39000000000004</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="15">
+        <f ca="1">NOW()</f>
+        <v>45708.95974583333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13">
+        <f>G2+F3</f>
+        <v>142.39000000000004</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="15"/>
+    </row>
+    <row r="4" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="15"/>
+    </row>
+    <row r="5" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I2:I5"/>
+  </mergeCells>
+  <phoneticPr fontId="27" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C22:C1048576" xr:uid="{5AAFBB88-7404-44D1-BD4D-A58B53DA2546}">
+      <formula1>"收入,支出"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C21" xr:uid="{5F282F80-4188-409C-972F-1C9049FD8B9F}">
+      <formula1>"收入,支出,学期转结"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/branch/SXAU/resources/others/money.xlsx
+++ b/branch/SXAU/resources/others/money.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\HTML\github\branch\SXAU\resources\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEE556F-ACF9-4E4A-A540-89AC64180CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE46A620-13F1-4EBA-9C7E-B6B61F96C86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{335928DB-CFAC-4ACE-B54E-2C90BF1ACF53}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="46">
   <si>
     <t>序号</t>
   </si>
@@ -178,6 +178,22 @@
   </si>
   <si>
     <t>转结</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>国梓浩</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>趣味运动会生命履带</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>华朝建、贾书颖</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>有机化学实验报告</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -1361,7 +1377,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="15">
         <f ca="1">NOW()</f>
-        <v>45708.95974583333</v>
+        <v>45728.865813310185</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1859,7 +1875,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1929,21 +1945,31 @@
       <c r="H2" s="9"/>
       <c r="I2" s="15">
         <f ca="1">NOW()</f>
-        <v>45708.95974583333</v>
+        <v>45728.865813310185</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="13"/>
+      <c r="B3" s="8">
+        <v>45721</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="13">
+        <v>-60</v>
+      </c>
       <c r="G3" s="13">
         <f>G2+F3</f>
-        <v>142.39000000000004</v>
+        <v>82.390000000000043</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="15"/>
@@ -1952,12 +1978,25 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="B4" s="8">
+        <v>45728</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="13">
+        <v>-78</v>
+      </c>
+      <c r="G4" s="13">
+        <f>G3+F4</f>
+        <v>4.3900000000000432</v>
+      </c>
       <c r="H4" s="9"/>
       <c r="I4" s="15"/>
     </row>

--- a/branch/SXAU/resources/others/money.xlsx
+++ b/branch/SXAU/resources/others/money.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\HTML\github\branch\SXAU\resources\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE46A620-13F1-4EBA-9C7E-B6B61F96C86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFA06D1-C2A7-41E4-B5D0-58C3FA3CA051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{335928DB-CFAC-4ACE-B54E-2C90BF1ACF53}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="52">
   <si>
     <t>序号</t>
   </si>
@@ -151,10 +151,6 @@
   </si>
   <si>
     <t>签到表打印</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>班费（31人）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -194,6 +190,34 @@
   </si>
   <si>
     <t>有机化学实验报告</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>班费</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>连君哲</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动会湿巾</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>王洋</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>40斤重量模拟（水）</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>班费（wsj，wy未交）</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -1307,7 +1331,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1377,7 +1401,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="15">
         <f ca="1">NOW()</f>
-        <v>45728.865813310185</v>
+        <v>45731.74235497685</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1745,7 +1769,7 @@
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F17" s="13">
         <v>3.9</v>
@@ -1767,10 +1791,10 @@
         <v>9</v>
       </c>
       <c r="D18" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>37</v>
       </c>
       <c r="F18" s="13">
         <v>-0.2</v>
@@ -1795,7 +1819,7 @@
         <v>25</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F19" s="13">
         <v>-30</v>
@@ -1817,7 +1841,7 @@
         <v>9</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>24</v>
@@ -1842,7 +1866,7 @@
         <v>9</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>24</v>
@@ -1875,7 +1899,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1928,13 +1952,13 @@
         <v>45708</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" s="13">
         <v>142.39000000000004</v>
@@ -1945,7 +1969,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="15">
         <f ca="1">NOW()</f>
-        <v>45728.865813310185</v>
+        <v>45731.74235497685</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1959,10 +1983,10 @@
         <v>9</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="F3" s="13">
         <v>-60</v>
@@ -1985,10 +2009,10 @@
         <v>9</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="F4" s="13">
         <v>-78</v>
@@ -2004,12 +2028,25 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="B5" s="8">
+        <v>45729</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="13">
+        <v>390</v>
+      </c>
+      <c r="G5" s="13">
+        <f t="shared" ref="G5:G7" si="0">G4+F5</f>
+        <v>394.39000000000004</v>
+      </c>
       <c r="H5" s="9"/>
       <c r="I5" s="15"/>
     </row>
@@ -2017,24 +2054,50 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="B6" s="8">
+        <v>45729</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="13">
+        <v>-14</v>
+      </c>
+      <c r="G6" s="13">
+        <f t="shared" si="0"/>
+        <v>380.39000000000004</v>
+      </c>
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="B7" s="8">
+        <v>45730</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="13">
+        <v>-27.2</v>
+      </c>
+      <c r="G7" s="13">
+        <f t="shared" si="0"/>
+        <v>353.19000000000005</v>
+      </c>
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">

--- a/branch/SXAU/resources/others/money.xlsx
+++ b/branch/SXAU/resources/others/money.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\HTML\github\branch\SXAU\resources\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFA06D1-C2A7-41E4-B5D0-58C3FA3CA051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4053B10-6139-4118-A280-D957FB80BC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{335928DB-CFAC-4ACE-B54E-2C90BF1ACF53}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="54">
   <si>
     <t>序号</t>
   </si>
@@ -217,7 +217,15 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>班费（wsj，wy未交）</t>
+    <t>班费</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>两人未交</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到表打印</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -1401,7 +1409,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="15">
         <f ca="1">NOW()</f>
-        <v>45731.74235497685</v>
+        <v>45747.757293402778</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1899,7 +1907,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1969,7 +1977,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="15">
         <f ca="1">NOW()</f>
-        <v>45731.74235497685</v>
+        <v>45747.757293402778</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -2041,13 +2049,15 @@
         <v>51</v>
       </c>
       <c r="F5" s="13">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="G5" s="13">
-        <f t="shared" ref="G5:G7" si="0">G4+F5</f>
-        <v>394.39000000000004</v>
-      </c>
-      <c r="H5" s="9"/>
+        <f t="shared" ref="G5:G8" si="0">G4+F5</f>
+        <v>374.39000000000004</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="I5" s="15"/>
     </row>
     <row r="6" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -2071,7 +2081,7 @@
       </c>
       <c r="G6" s="13">
         <f t="shared" si="0"/>
-        <v>380.39000000000004</v>
+        <v>360.39000000000004</v>
       </c>
       <c r="H6" s="9"/>
     </row>
@@ -2096,7 +2106,7 @@
       </c>
       <c r="G7" s="13">
         <f t="shared" si="0"/>
-        <v>353.19000000000005</v>
+        <v>333.19000000000005</v>
       </c>
       <c r="H7" s="9"/>
     </row>
@@ -2104,12 +2114,25 @@
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="B8" s="8">
+        <v>45747</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="13">
+        <v>-0.2</v>
+      </c>
+      <c r="G8" s="13">
+        <f t="shared" si="0"/>
+        <v>332.99000000000007</v>
+      </c>
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">

--- a/branch/SXAU/resources/others/money.xlsx
+++ b/branch/SXAU/resources/others/money.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\HTML\github\branch\SXAU\resources\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4053B10-6139-4118-A280-D957FB80BC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE58FA5-A804-4A6C-A592-EA198A1EB734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{335928DB-CFAC-4ACE-B54E-2C90BF1ACF53}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="54">
   <si>
     <t>序号</t>
   </si>
@@ -221,11 +221,11 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>两人未交</t>
+    <t>签到表打印</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>签到表打印</t>
+    <t>华朝建</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -1409,7 +1409,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="15">
         <f ca="1">NOW()</f>
-        <v>45747.757293402778</v>
+        <v>45760.971789583331</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1907,7 +1907,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1977,7 +1977,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="15">
         <f ca="1">NOW()</f>
-        <v>45747.757293402778</v>
+        <v>45760.971789583331</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -2049,15 +2049,13 @@
         <v>51</v>
       </c>
       <c r="F5" s="13">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="G5" s="13">
-        <f t="shared" ref="G5:G8" si="0">G4+F5</f>
-        <v>374.39000000000004</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>52</v>
-      </c>
+        <f t="shared" ref="G5:G9" si="0">G4+F5</f>
+        <v>394.39000000000004</v>
+      </c>
+      <c r="H5" s="9"/>
       <c r="I5" s="15"/>
     </row>
     <row r="6" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -2081,7 +2079,7 @@
       </c>
       <c r="G6" s="13">
         <f t="shared" si="0"/>
-        <v>360.39000000000004</v>
+        <v>380.39000000000004</v>
       </c>
       <c r="H6" s="9"/>
     </row>
@@ -2106,7 +2104,7 @@
       </c>
       <c r="G7" s="13">
         <f t="shared" si="0"/>
-        <v>333.19000000000005</v>
+        <v>353.19000000000005</v>
       </c>
       <c r="H7" s="9"/>
     </row>
@@ -2124,14 +2122,14 @@
         <v>46</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8" s="13">
         <v>-0.2</v>
       </c>
       <c r="G8" s="13">
         <f t="shared" si="0"/>
-        <v>332.99000000000007</v>
+        <v>352.99000000000007</v>
       </c>
       <c r="H8" s="9"/>
     </row>
@@ -2139,12 +2137,25 @@
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="B9" s="8">
+        <v>45754</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="13">
+        <v>-0.2</v>
+      </c>
+      <c r="G9" s="13">
+        <f t="shared" si="0"/>
+        <v>352.79000000000008</v>
+      </c>
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">

--- a/branch/SXAU/resources/others/money.xlsx
+++ b/branch/SXAU/resources/others/money.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\HTML\github\branch\SXAU\resources\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE58FA5-A804-4A6C-A592-EA198A1EB734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4A2CFB-9858-42FD-8DCB-F0C91510CB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{335928DB-CFAC-4ACE-B54E-2C90BF1ACF53}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="56">
   <si>
     <t>序号</t>
   </si>
@@ -226,6 +226,14 @@
   </si>
   <si>
     <t>华朝建</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>丰乐鑫</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>投票表打印（35份）</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -1409,7 +1417,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="15">
         <f ca="1">NOW()</f>
-        <v>45760.971789583331</v>
+        <v>45761.762403935187</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1907,7 +1915,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1977,7 +1985,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="15">
         <f ca="1">NOW()</f>
-        <v>45760.971789583331</v>
+        <v>45761.762403935187</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -2052,7 +2060,7 @@
         <v>390</v>
       </c>
       <c r="G5" s="13">
-        <f t="shared" ref="G5:G9" si="0">G4+F5</f>
+        <f t="shared" ref="G5:G10" si="0">G4+F5</f>
         <v>394.39000000000004</v>
       </c>
       <c r="H5" s="9"/>
@@ -2162,12 +2170,25 @@
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="B10" s="8">
+        <v>45761</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="13">
+        <v>-7</v>
+      </c>
+      <c r="G10" s="13">
+        <f t="shared" si="0"/>
+        <v>345.79000000000008</v>
+      </c>
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">

--- a/branch/SXAU/resources/others/money.xlsx
+++ b/branch/SXAU/resources/others/money.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\HTML\github\branch\SXAU\resources\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4A2CFB-9858-42FD-8DCB-F0C91510CB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C758E5-0859-4B99-A46E-154ED65808D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{335928DB-CFAC-4ACE-B54E-2C90BF1ACF53}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="58">
   <si>
     <t>序号</t>
   </si>
@@ -234,6 +234,14 @@
   </si>
   <si>
     <t>投票表打印（35份）</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>李美璇</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>心理科教具（打印）</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -1417,7 +1425,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="15">
         <f ca="1">NOW()</f>
-        <v>45761.762403935187</v>
+        <v>45770.959556828704</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1915,7 +1923,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1985,7 +1993,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="15">
         <f ca="1">NOW()</f>
-        <v>45761.762403935187</v>
+        <v>45770.959556828704</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -2060,7 +2068,7 @@
         <v>390</v>
       </c>
       <c r="G5" s="13">
-        <f t="shared" ref="G5:G10" si="0">G4+F5</f>
+        <f t="shared" ref="G5:G21" si="0">G4+F5</f>
         <v>394.39000000000004</v>
       </c>
       <c r="H5" s="9"/>
@@ -2195,12 +2203,25 @@
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="B11" s="8">
+        <v>45770</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="13">
+        <v>-0.6</v>
+      </c>
+      <c r="G11" s="13">
+        <f t="shared" si="0"/>
+        <v>345.19000000000005</v>
+      </c>
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">

--- a/branch/SXAU/resources/others/money.xlsx
+++ b/branch/SXAU/resources/others/money.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\HTML\github\branch\SXAU\resources\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C758E5-0859-4B99-A46E-154ED65808D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1178FF-DFCD-43F7-857C-E20E81FAB08C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{335928DB-CFAC-4ACE-B54E-2C90BF1ACF53}"/>
   </bookViews>
@@ -1425,7 +1425,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="15">
         <f ca="1">NOW()</f>
-        <v>45770.959556828704</v>
+        <v>45770.964346990739</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1923,7 +1923,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1993,7 +1993,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="15">
         <f ca="1">NOW()</f>
-        <v>45770.959556828704</v>
+        <v>45770.964346990739</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -2068,7 +2068,7 @@
         <v>390</v>
       </c>
       <c r="G5" s="13">
-        <f t="shared" ref="G5:G21" si="0">G4+F5</f>
+        <f t="shared" ref="G5:G11" si="0">G4+F5</f>
         <v>394.39000000000004</v>
       </c>
       <c r="H5" s="9"/>
